--- a/src/exports/export_001/output/rads_2023_2024_total_menor_0.xlsx
+++ b/src/exports/export_001/output/rads_2023_2024_total_menor_0.xlsx
@@ -497,7 +497,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7086</v>
+        <v>10520</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -516,7 +516,7 @@
         <v>68</v>
       </c>
       <c r="F2" t="n">
-        <v>30.4</v>
+        <v>30</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -525,13 +525,13 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>23.52</v>
+        <v>23</v>
       </c>
       <c r="K2" t="n">
-        <v>169.12</v>
+        <v>169</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -541,7 +541,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7102</v>
+        <v>10536</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -585,7 +585,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>7105</v>
+        <v>10539</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -601,25 +601,25 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>94.268</v>
+        <v>94</v>
       </c>
       <c r="F4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>21.25</v>
+        <v>21</v>
       </c>
       <c r="I4" t="n">
-        <v>82.5</v>
+        <v>82</v>
       </c>
       <c r="J4" t="n">
-        <v>125.51</v>
+        <v>125</v>
       </c>
       <c r="K4" t="n">
-        <v>333.028</v>
+        <v>333</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7106</v>
+        <v>10540</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -651,7 +651,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>100.02</v>
+        <v>100</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>100.02</v>
+        <v>100</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7107</v>
+        <v>10541</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -717,7 +717,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>7123</v>
+        <v>10557</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7147</v>
+        <v>10581</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -792,10 +792,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>33.34</v>
+        <v>33</v>
       </c>
       <c r="K8" t="n">
-        <v>105.36</v>
+        <v>105</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7159</v>
+        <v>10593</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>7238</v>
+        <v>10672</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>100.02</v>
+        <v>100</v>
       </c>
       <c r="K10" t="n">
-        <v>200.04</v>
+        <v>200</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -893,7 +893,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>7380</v>
+        <v>10814</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>7386</v>
+        <v>10820</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>7529</v>
+        <v>10963</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1006,16 +1006,16 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>18.42</v>
+        <v>18</v>
       </c>
       <c r="K13" t="n">
-        <v>106.8</v>
+        <v>106</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>7533</v>
+        <v>10967</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>100.02</v>
+        <v>100</v>
       </c>
       <c r="K14" t="n">
-        <v>100.02</v>
+        <v>100</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>7586</v>
+        <v>11020</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>66</v>
       </c>
       <c r="F15" t="n">
-        <v>40.04</v>
+        <v>40</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>106.04</v>
+        <v>106</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -1113,7 +1113,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>7600</v>
+        <v>11034</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>83.35000000000001</v>
+        <v>83</v>
       </c>
       <c r="K16" t="n">
-        <v>83.35000000000001</v>
+        <v>83</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>7639</v>
+        <v>11073</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1188,10 +1188,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>100.02</v>
+        <v>100</v>
       </c>
       <c r="K17" t="n">
-        <v>100.02</v>
+        <v>100</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>7814</v>
+        <v>11248</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>100.02</v>
+        <v>100</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>100.02</v>
+        <v>100</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>7853</v>
+        <v>11287</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1276,10 +1276,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>66.68000000000001</v>
+        <v>66</v>
       </c>
       <c r="K19" t="n">
-        <v>66.68000000000001</v>
+        <v>66</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>7865</v>
+        <v>11299</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>7893</v>
+        <v>11327</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1364,10 +1364,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>100.02</v>
+        <v>100</v>
       </c>
       <c r="K21" t="n">
-        <v>100.02</v>
+        <v>100</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>8170</v>
+        <v>11604</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1399,19 +1399,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>30.5</v>
+        <v>30</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>6.04</v>
+        <v>6</v>
       </c>
       <c r="K22" t="n">
-        <v>112.14</v>
+        <v>112</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>8245</v>
+        <v>11679</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1452,10 +1452,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>100.02</v>
+        <v>100</v>
       </c>
       <c r="K23" t="n">
-        <v>100.02</v>
+        <v>100</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>8317</v>
+        <v>11751</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>62.58</v>
+        <v>62</v>
       </c>
       <c r="K24" t="n">
-        <v>107.08</v>
+        <v>107</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>8383</v>
+        <v>11817</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>100.02</v>
+        <v>100</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>100.02</v>
+        <v>100</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>8514</v>
+        <v>11948</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1584,10 +1584,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>100.02</v>
+        <v>100</v>
       </c>
       <c r="K26" t="n">
-        <v>100.02</v>
+        <v>100</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>8585</v>
+        <v>12019</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>8952</v>
+        <v>12386</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1672,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>100.02</v>
+        <v>100</v>
       </c>
       <c r="K28" t="n">
-        <v>100.02</v>
+        <v>100</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>9202</v>
+        <v>12636</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1704,22 +1704,22 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="G29" t="n">
-        <v>12.24</v>
+        <v>12</v>
       </c>
       <c r="H29" t="n">
-        <v>28.75</v>
+        <v>28</v>
       </c>
       <c r="I29" t="n">
-        <v>81.5</v>
+        <v>81</v>
       </c>
       <c r="J29" t="n">
-        <v>124.54</v>
+        <v>124</v>
       </c>
       <c r="K29" t="n">
-        <v>249.53</v>
+        <v>249</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>

--- a/src/exports/export_001/output/rads_2023_2024_total_menor_0.xlsx
+++ b/src/exports/export_001/output/rads_2023_2024_total_menor_0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,55 +441,60 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>campus</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>periodo</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>situacao</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>total</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>aula</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>ensino</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>capacitacao</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pesquisa</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>extensao</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>administracao</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>total_nao_homologado</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>siape</t>
         </is>
@@ -501,39 +506,44 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>CMPURT</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>2023/1</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>68</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>30</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>2</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>23</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>169</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>1864815</t>
         </is>
@@ -545,16 +555,18 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>CMPCBE</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>2023/1</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -577,7 +589,10 @@
       <c r="K3" t="n">
         <v>0</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>3086912</t>
         </is>
@@ -589,39 +604,44 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>CMPURT</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>2023/1</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
         <v>94</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>9</v>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>21</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>82</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>125</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>333</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>1407950</t>
         </is>
@@ -633,16 +653,18 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>CMPCBE</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>2023/1</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -651,11 +673,11 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>100</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
@@ -663,9 +685,12 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
         <v>100</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>1384130</t>
         </is>
@@ -677,16 +702,18 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>CMPCBE</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>2023/1</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -709,7 +736,10 @@
       <c r="K6" t="n">
         <v>0</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>1272911</t>
         </is>
@@ -721,16 +751,18 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>CMPCBE</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>2023/1</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -753,7 +785,10 @@
       <c r="K7" t="n">
         <v>0</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>1127941</t>
         </is>
@@ -765,16 +800,18 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>CMPCE</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>2023/1</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -792,12 +829,15 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
         <v>33</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>105</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>2129064</t>
         </is>
@@ -809,23 +849,25 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>CMPCE</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>2023/1</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
         <v>99</v>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
@@ -839,9 +881,12 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>99</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1276280</t>
         </is>
@@ -853,16 +898,18 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>CMPRV</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>2023/1</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -880,12 +927,15 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
         <v>100</v>
       </c>
-      <c r="K10" t="n">
+      <c r="L10" t="n">
         <v>200</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>1959890</t>
         </is>
@@ -897,16 +947,18 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>CMPMHOS</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>2023/1</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -929,7 +981,10 @@
       <c r="K11" t="n">
         <v>0</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>1459597</t>
         </is>
@@ -941,16 +996,18 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>CMPMHOS</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>2023/1</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -973,7 +1030,10 @@
       <c r="K12" t="n">
         <v>0</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>2682259</t>
         </is>
@@ -985,39 +1045,44 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>CMPRV</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>2023/1</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>84</v>
       </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>3</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
       <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>18</v>
       </c>
-      <c r="K13" t="n">
+      <c r="L13" t="n">
         <v>106</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>2892574</t>
         </is>
@@ -1029,16 +1094,18 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>CMPRV</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>2023/1</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1056,12 +1123,15 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>100</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L14" t="n">
+        <v>100</v>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>2335728</t>
         </is>
@@ -1073,26 +1143,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>CMPRV</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>2023/1</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>66</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>40</v>
       </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
@@ -1103,9 +1175,12 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
         <v>106</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>1494897</t>
         </is>
@@ -1117,16 +1192,18 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>CMPTRI</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>2023/1</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1144,12 +1221,15 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>83</v>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="L16" t="n">
+        <v>83</v>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>1939515</t>
         </is>
@@ -1161,16 +1241,18 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>CMPTRI</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>2023/1</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1188,12 +1270,15 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>100</v>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="L17" t="n">
+        <v>100</v>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>1037637</t>
         </is>
@@ -1205,16 +1290,18 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>CMPCBE</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>2023/2</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1223,11 +1310,11 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
         <v>100</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
@@ -1235,9 +1322,12 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
         <v>100</v>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>1384130</t>
         </is>
@@ -1249,16 +1339,18 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>CMPCE</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>2023/2</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1276,12 +1368,15 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>66</v>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="L19" t="n">
+        <v>66</v>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>2129064</t>
         </is>
@@ -1293,23 +1388,25 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>CMPCE</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>2023/2</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>99</v>
       </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
@@ -1323,9 +1420,12 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
         <v>99</v>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>1276280</t>
         </is>
@@ -1337,16 +1437,18 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>CMPCE</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>2023/2</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1364,12 +1466,15 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>100</v>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="L21" t="n">
+        <v>100</v>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>1153740</t>
         </is>
@@ -1381,39 +1486,44 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>CMPMHOS</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>2023/2</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>74</v>
       </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
       <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
         <v>1</v>
       </c>
-      <c r="H22" t="n">
+      <c r="I22" t="n">
         <v>30</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
       <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>6</v>
       </c>
-      <c r="K22" t="n">
+      <c r="L22" t="n">
         <v>112</v>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>1216890</t>
         </is>
@@ -1425,16 +1535,18 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>CMPRV</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>2023/2</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1452,12 +1564,15 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>100</v>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="L23" t="n">
+        <v>100</v>
+      </c>
+      <c r="M23" t="inlineStr">
         <is>
           <t>2335728</t>
         </is>
@@ -1469,39 +1584,44 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>CMPRV</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>2023/2</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>42</v>
       </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
       <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
         <v>2</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>62</v>
       </c>
-      <c r="K24" t="n">
+      <c r="L24" t="n">
         <v>107</v>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="M24" t="inlineStr">
         <is>
           <t>2409149</t>
         </is>
@@ -1513,16 +1633,18 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>CMPURT</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>2023/2</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -1531,11 +1653,11 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
         <v>100</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
@@ -1543,9 +1665,12 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
         <v>100</v>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="M25" t="inlineStr">
         <is>
           <t>2216533</t>
         </is>
@@ -1557,16 +1682,18 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>CMPTRI</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>2024/1</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -1584,12 +1711,15 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>100</v>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="L26" t="n">
+        <v>100</v>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
           <t>1264211</t>
         </is>
@@ -1601,16 +1731,18 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>CMPCE</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>2024/1</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -1633,7 +1765,10 @@
       <c r="K27" t="n">
         <v>0</v>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>1002598</t>
         </is>
@@ -1645,16 +1780,18 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>CMPRV</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>2024/1</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -1672,12 +1809,15 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>100</v>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="L28" t="n">
+        <v>100</v>
+      </c>
+      <c r="M28" t="inlineStr">
         <is>
           <t>2335728</t>
         </is>
@@ -1689,39 +1829,44 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>REITORIA</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>2024/1</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Homologado</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Homologado</t>
+        </is>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>2</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29" t="n">
         <v>12</v>
       </c>
-      <c r="H29" t="n">
+      <c r="I29" t="n">
         <v>28</v>
       </c>
-      <c r="I29" t="n">
+      <c r="J29" t="n">
         <v>81</v>
       </c>
-      <c r="J29" t="n">
+      <c r="K29" t="n">
         <v>124</v>
       </c>
-      <c r="K29" t="n">
+      <c r="L29" t="n">
         <v>249</v>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="M29" t="inlineStr">
         <is>
           <t>1823311</t>
         </is>

--- a/src/exports/export_001/output/rads_2023_2024_total_menor_0.xlsx
+++ b/src/exports/export_001/output/rads_2023_2024_total_menor_0.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
